--- a/biology/Botanique/Herbert_Kenneth_Airy_Shaw/Herbert_Kenneth_Airy_Shaw.xlsx
+++ b/biology/Botanique/Herbert_Kenneth_Airy_Shaw/Herbert_Kenneth_Airy_Shaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert Kenneth Airy Shaw est un botaniste britannique, né le 7 avril 1902 à Woodbridge dans le Suffolk et mort en 1985.
 Après des études à l'université de Cambridge en biologie, il est engagé aux Jardins botaniques royaux de Kew. Il se spécialise sur les spermatophytes d'Asie tropicale et est aussi l'auteur d'observations entomologiques.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sphenocleaceae, Flora of Tropical East Africa, London, 1968, 3 p.
 The Euphorbiaceae of Borneo, Kew Bulletin. Additional Series vol. 4, London, 1975, 243 p.  (ISBN 0112410995)
@@ -545,7 +559,9 @@
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de plusieurs familles botaniques nouvelles :
 Alseuosmiaceae
